--- a/biology/Botanique/Zeuzère_du_poirier/Zeuzère_du_poirier.xlsx
+++ b/biology/Botanique/Zeuzère_du_poirier/Zeuzère_du_poirier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Zeuz%C3%A8re_du_poirier</t>
+          <t>Zeuzère_du_poirier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zeuzera pyrina
 La Zeuzère du poirier ou Zeuzère du marronnier, Zeuzera pyrina, est une espèce d'insectes de l'ordre des lépidoptères (papillons) et de la famille des Cossidae, dont la larve se développe dans le bois des branches et du tronc de plusieurs espèces d'arbres et arbustes. Ce ravageur peut provoquer des dégâts importants sur des arbres fruitiers comme le poirier et le pommier.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Zeuz%C3%A8re_du_poirier</t>
+          <t>Zeuzère_du_poirier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Zeuzère du poirier a été dénommée Zeuzera pyrina par Carl von Linné en 1761 sous le protonyme Phalaena pyrina Linnaeus, 1761.Autres noms vernaculaires : la Zeuzère du marronnier, la Coquette.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Zeuz%C3%A8re_du_poirier</t>
+          <t>Zeuzère_du_poirier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'insecte adulte est un papillon de 50 à 60 mm environ d'envergure chez la femelle; le mâle, plus petit, mesure de 35 à 40 mm. Les ailes sont blanches, parsemées de taches bleuâtres. Le thorax blanc porte six taches bleues.
 La larve est une chenille de 50 mm de long environ au corps jaune vif marqué de petits points noirs.
